--- a/MySQL/08-MySQL-锁.xlsx
+++ b/MySQL/08-MySQL-锁.xlsx
@@ -46,6 +46,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>排它锁：</t>
     </r>
     <r>
@@ -390,14 +398,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>例如：id有[1,2,4,5,7,8]，查询范围为</t>
     </r>
     <r>
@@ -419,7 +419,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>此时即使没有id=3的数据，也会被锁</t>
+      <t>此时即使没有id=3和id=6的数据，也会被锁</t>
     </r>
   </si>
   <si>
@@ -440,9 +440,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -500,6 +500,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -509,120 +623,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -669,187 +669,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,15 +860,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -883,15 +874,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,6 +934,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -968,145 +968,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1482,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:K6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>

--- a/MySQL/08-MySQL-锁.xlsx
+++ b/MySQL/08-MySQL-锁.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>存储引擎</t>
   </si>
@@ -398,6 +398,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>例如：id有[1,2,4,5,7,8]，查询范围为</t>
     </r>
     <r>
@@ -433,6 +441,168 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>读锁：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use库后 =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lock tables </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要加锁的表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> read; 【加锁后可以读取数据，不能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增、删、改</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据】</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>写锁：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use库后 =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">lock tables </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要加锁的表</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> write; 【加锁后不能</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增、删、改、查</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据】</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -440,12 +610,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,6 +670,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -508,27 +686,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -538,7 +695,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,6 +739,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -560,83 +807,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
@@ -659,6 +829,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -669,13 +847,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,73 +943,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,85 +1015,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,17 +1071,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,40 +1124,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,149 +1146,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1130,6 +1308,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1480,10 +1661,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:K18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>
@@ -1689,8 +1870,38 @@
         <v>23</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:11">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:11">
+      <c r="A25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
@@ -1708,6 +1919,8 @@
     <mergeCell ref="A20:K20"/>
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B22:K22"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
